--- a/reports/vivado/OperationChaining6nsSolution/power/OperationChaining6nsSetResetPowerReport.xlsx
+++ b/reports/vivado/OperationChaining6nsSolution/power/OperationChaining6nsSetResetPowerReport.xlsx
@@ -175,7 +175,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>5.974522082397016E-6</v>
+        <v>2.736190481300582E-6</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -201,7 +201,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>5.974522082397016E-6</v>
+        <v>2.510476178940735E-6</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
@@ -216,7 +216,7 @@
         <v>37.0</v>
       </c>
       <c r="F3" t="n" s="7">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G3" t="s" s="4">
         <v>11</v>
@@ -227,7 +227,7 @@
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>0.0</v>
+        <v>2.2571428814899264E-7</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>13</v>
@@ -242,7 +242,7 @@
         <v>13.0</v>
       </c>
       <c r="F4" t="n" s="7">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G4" t="s" s="4">
         <v>11</v>
